--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2-Fzd7.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>1.194479105777778</v>
+        <v>0.3858101601022223</v>
       </c>
       <c r="R2">
-        <v>10.750311952</v>
+        <v>3.47229144092</v>
       </c>
       <c r="S2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="T2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
         <v>3.717076871293334</v>
@@ -635,10 +635,10 @@
         <v>33.45369184164</v>
       </c>
       <c r="S3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="T3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>2.139116129617778</v>
+        <v>2.392738361884445</v>
       </c>
       <c r="R4">
-        <v>19.25204516656</v>
+        <v>21.53464525696</v>
       </c>
       <c r="S4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="T4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>2.180553703213334</v>
+        <v>1.374777661497778</v>
       </c>
       <c r="R5">
-        <v>19.62498332892</v>
+        <v>12.37299895348</v>
       </c>
       <c r="S5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="T5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
     </row>
   </sheetData>
